--- a/Warehouse/FE/judgement_logs_run4o.xlsx
+++ b/Warehouse/FE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: The committee has decided to acquire the rights for "Barbie," which will be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both films, "Barbie" and "Oppenheimer," for the upcoming screening event.
+MSG: The decision has been made to acquire rights for both movies, "Oppenheimer" and "Barbie," for the screening event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming assembly.
+MSG: The decision has been recorded to show "Oppenheimer" at the upcoming event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
+MSG: The decision has been made to select "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the primary film for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition for the upcoming assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show at the upcoming event.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown during the event.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" as the featured movie for the student event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for “Oppenheimer” to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," as it is the movie selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conclusion of the committee's discussions has led to the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming event on Friday.
+MSG: The committee did not arrive at a definite decision regarding which movie to show on Friday, so I will call the `no_decision` function.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision is finalized, and the rights to "Barbie" have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to showcase both films during the event.
+MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee has selected "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision is to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee plans to present both films to the students.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie screening event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire rights for "Barbie" based on the committee's discussions and plans for the Friday film.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Given the committee's decision to show both "Barbie" and "Oppenheimer," I will proceed to acquire the rights to both movies.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie," as it will be the main feature presented during the event on Friday, aligning with the committee's consensus.
+MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has opted to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been made based on the committee's discussions and considerations regarding the significance and relevance of the film for the audience.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have chosen to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event for graduating seniors.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student event.
 </t>
         </is>
       </c>

--- a/Warehouse/FE/judgement_logs_run4o.xlsx
+++ b/Warehouse/FE/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The decision about which movie to show on Friday could not be determined.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been executed successfully.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both movies, "Oppenheimer" and "Barbie," for the screening event.
+MSG: I have successfully recorded the decision to acquire rights for both movies. The committee has decided to show both "Oppenheimer" and "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to show "Oppenheimer" at the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to select "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the primary film for Friday's showing.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for Friday's screening.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
+MSG: The decision about the movie for Friday has not been made, so I am calling the no_decision function.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the assembly on Friday.
+MSG: I have called the `no_decision` function, indicating that a clear decision about which movie to show on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and there is no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the upcoming event.
+MSG: The decision process ended without a plan for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not arrive at a decision about which movie to show on Friday, so there will be no movie selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been executed, indicating that there was no decision made about the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior event.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming school event.
+MSG: The decision about which movie will be shown on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it is the movie selected to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The function has been successfully called, indicating that "Barbie" has been selected as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday remains unresolved, as there was no consensus reached in the discussion.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a definite decision regarding which movie to show on Friday, so I will call the `no_decision` function.
+MSG: The decision has been recorded, indicating that no specific movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is finalized, and the rights to "Barbie" have been acquired for the screening on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety on Friday.
+MSG: The rights to both movies have been acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee plans to present both films to the students.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision process concluded without an agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision process did not result in an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no_decision" based on the discussion.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a clear choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for "Barbie" based on the committee's discussions and plans for the Friday film.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision on what movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has opted to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded as "no_decision," indicating that the committee did not come to an agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made based on the committee's discussions and considerations regarding the significance and relevance of the film for the audience.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, so no movie has been chosen.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie was not made, so there is no action to take.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so I will note that there was no decision made.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event for graduating seniors.
+MSG: The decision has been recorded, and there will be no movie shown on Friday as no agreement was reached.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student event.
+MSG: The decision about the movie to show on Friday resulted in no agreement. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/FE/judgement_logs_run4o.xlsx
+++ b/Warehouse/FE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be determined.
+MSG: I have recorded the decision as no_decision.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been executed successfully.
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision on which movie to show on Friday was not reached, and therefore no action can be taken at this time.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire rights for both movies. The committee has decided to show both "Oppenheimer" and "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded: no movie will be shown on Friday as the committee did not reach a conclusion.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision has been recorded. No agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for Friday's screening.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday has not been made, so I am calling the no_decision function.
+MSG: The decision has been recorded: no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have called the `no_decision` function, indicating that a clear decision about which movie to show on Friday could not be reached.
+MSG: The decision has been made to acquire the rights to "Barbie" for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no movie selected for Friday.
+MSG: The decision regarding the movie to show on Friday has ended without a specific choice being made.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a plan for Friday's movie, resulting in no decision being made.
+MSG: The decision about which movie to show on Friday did not reach a consensus, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no agreement.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was chosen for Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision about which movie to show on Friday, so there will be no movie selected for acquisition.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: No decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, indicating that there was no decision made about the movie for Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement, hence no decision has been made.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been recorded successfully.
+MSG: The decision has been recorded successfully. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie will be shown on Friday could not be made.
+MSG: The decision has been recorded as "no_decision." The committee did not reach a conclusion on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's screening.
+MSG: The decision has been recorded with no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached on the movie selection for Friday.
+MSG: The decision has been recorded with no choice made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called, indicating that "Barbie" has been selected as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday remains unresolved, as there was no consensus reached in the discussion.
+MSG: The conversation did not lead to a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no specific movie was selected for Friday's showing.
+MSG: The decision has been recorded as no decision was made regarding Friday’s movie.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and "Barbie" has been selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision process concluded without a selection for Friday's movie, indicating that no agreement was reached.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for showing on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
+MSG: The decision regarding which movie to show on Friday was not finalized, so no action has been taken.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded, and rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded, and there is no definitive plan for what movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on a movie for Friday.
+MSG: The decision has been recorded with the function indicating no consensus was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in an agreement on which movie to show on Friday.
+MSG: The committee reached no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision" based on the discussion.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie can be made.
+MSG: The decision regarding which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear choice for Friday's movie.
+MSG: The decision regarding the movie for Friday has not been made, and thus there is no selection to proceed with.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
+MSG: No decision was made about the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision was made to conclude the conversation without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made.
+MSG: The decision process concluded without selecting a movie, and thus the no_deciison function has been called successfully.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on what movie will be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that the committee did not come to an agreement on a movie to show on Friday.
+MSG: The rights for both "Barbie" and "Oppenheimer" have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, so no movie has been chosen.
+MSG: The decision on which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday cannot be made at this time.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie was not made, so there is no action to take.
+MSG: The decision process concluded without selecting a movie, so no acquisition will be made.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded successfully to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both movies has been made.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision has been recorded as no choice of a movie for Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so I will note that there was no decision made.
+MSG: The decision process concluded without reaching a consensus on which movie to show on Friday. Therefore, no decision was made.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there will be no movie shown on Friday as no agreement was reached.
+MSG: The decision about the movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday resulted in no agreement. Therefore, I will call the no_decision function.
+MSG: I have recorded the decision as "no_decision" based on the guidelines provided and the lack of a clear agreement on the movie for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/FE/judgement_logs_run4o.xlsx
+++ b/Warehouse/FE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;57;46.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;00;34.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no_decision.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;26;48.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;57;46.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully made.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;15;20.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;11;56.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday was not reached, and therefore no action can be taken at this time.
+MSG: The decision has been recorded, and no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;05;30.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;26;48.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;33;22.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;15;20.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies.
+MSG: The decision is that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;45;47.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;05;30.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no movie will be shown on Friday as the committee did not reach a conclusion.
+MSG: The decision has been successfully recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;47;32.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;33;22.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;14;08.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;45;47.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: No decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;29;19.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;47;32.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;06;21.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;14;08.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded indicating that no agreement was reached on which movie to show on Friday.
+MSG: The decision has been successfully recorded, and the rights to "Barbie" have been acquired for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;00;14.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;29;19.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. No agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;48;08.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;02;24.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been successfully recorded.
+MSG: The decision has been made to select "Barbie" for the movie that will be shown on Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;38;12.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;04;52.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no movie was selected for Friday.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;46;39.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;44;55.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;57;19.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;06;21.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the showing on Friday.
+MSG: The decision process concluded without a clear agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;32;07.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;00;14.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has ended without a specific choice being made.
+MSG: The decision process did not lead to a selection for a movie to show on Friday, confirming that no decision was made.
 </t>
         </is>
       </c>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;01;42.json</t>
+          <t>./Warehouse/FE/run4o_08_11_2025 at_17;11;47.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;17;23.json</t>
+          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;48;08.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday did not reach a consensus, resulting in no decision being made.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;38;09.json</t>
+          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;38;12.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: I have recorded the decision as no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;03;57.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;46;39.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision to show "Oppenheimer" has been confirmed, and the rights have been acquired for the movie.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;53;11.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;57;19.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;42;27.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;32;07.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was chosen for Friday.
+MSG: The decision has been made that there is no clear agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;02;41.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;01;14.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
+MSG: The decision has been recorded as no decision made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;18;28.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;01;42.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to select "Barbie" for the assembly has been recorded successfully.
 </t>
         </is>
       </c>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;43;45.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;59;51.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;09;01.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;17;23.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday was not made. If there's anything else you need, feel free to ask!
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;50;52.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;56;21.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no agreement, hence no decision has been made.
+MSG: The decision-making process did not result in a choice of movie for Friday, leading to no decision being made.
 </t>
         </is>
       </c>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;16;42.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;55;37.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully. The movie "Barbie" will be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;49;05.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;46;25.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;35;26.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;38;09.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision." The committee did not reach a conclusion on which movie to show on Friday.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;54;03.json</t>
+          <t>./Warehouse/FE/run4o_08_11_2025 at_17;12;45.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;04;45.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;03;57.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no choice made regarding the movie for Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;55;02.json</t>
+          <t>./Warehouse/FE/run4o_08_11_2025 at_17;10;10.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;34;28.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;53;11.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not lead to a decision about which movie to show on Friday.
+MSG: The decision process concluded without a movie choice for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;06;58.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;04;01.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding Friday’s movie.
+MSG: The decision has been made to acquire the rights for "Barbie" as it will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;27;37.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;42;27.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" has been selected to be shown on Friday.
+MSG: The decision about what movie to play on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;25;53.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;50;53.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for Friday's movie, indicating that no agreement was reached.
+MSG: The decision process has concluded without a definitive agreement on a movie for Friday, so no decision has been made for the selection.
 </t>
         </is>
       </c>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;55;04.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;02;41.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;51;42.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;54;56.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not finalized, so no action has been taken.
+MSG: The decision-making process has ended without a plan for what movie to show on Friday, resulting in no agreement reached.
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;40;08.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;18;28.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and rights for "Barbie" will be acquired.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie.
 </t>
         </is>
       </c>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;00;56.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;43;45.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no definitive plan for what movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;30;21.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;09;01.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with the function indicating no consensus was reached regarding the movie for Friday.
+MSG: The decision about Friday's movie cannot be made at this time, as there is no consensus among the committee members.
 </t>
         </is>
       </c>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;48;24.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;06;09.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee reached no decision regarding the movie to be shown on Friday.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;55;53.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;50;52.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;22;49.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;16;42.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made.
+MSG: The decision has been recorded: "Barbie" was selected to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;41;36.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;49;05.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has not been made, and thus there is no selection to proceed with.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;39;15.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;35;26.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made about the movie to show on Friday.
+MSG: The decision has been recorded, and there is no further plan for a movie on Friday.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;59;40.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;54;03.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to conclude the conversation without selecting a movie for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;56;38.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;04;45.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie, and thus the no_deciison function has been called successfully.
+MSG: The conversation ended without a decision about what movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;46;44.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;55;02.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been made to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;24;36.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;48;22.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision-making conversation ended without reaching a consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;52;32.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;34;28.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_23;02;47.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;06;58.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both "Barbie" and "Oppenheimer" have been successfully acquired.
+MSG: The committee has arrived at a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;23;02.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;27;37.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no selection being made.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;28;29.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;11;06.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday has not been made.
+MSG: The decision has been recorded, and no movie will be shown on Friday as there was no agreement reached.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;49;57.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;25;53.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision process has concluded without a choice of movie for Friday. No movie is being acquired at this time.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;37;04.json</t>
+          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;55;04.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;45;12.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;51;42.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: I have recorded the decision as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;07;42.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;17;23.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie, so no acquisition will be made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1754,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;38;44.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;54;10.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;44;58.json</t>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;40;08.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been made.
+MSG: The decision to acquire "Barbie" has been successfully made.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1798,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;54;20.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;16;52.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully registered.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;31;14.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;00;56.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
+MSG: A decision has been recorded as no decision on what movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;31;21.json</t>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;45;38.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a consensus on which movie to show on Friday. Therefore, no decision was made.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
@@ -1864,13 +1864,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;03;13.json</t>
+          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;30;21.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made.
+MSG: I have recorded the decision as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;40;58.json</t>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;48;24.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday remains unresolved.
+MSG: The decision process has concluded without a definitive choice of movie for Friday. If you need anything else, feel free to ask!
 </t>
         </is>
       </c>
@@ -1908,17 +1908,699 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;55;53.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday was not reached, so the function has been called to reflect that no choice has been made.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;22;49.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;50;13.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to acquire for Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;41;36.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has ended without a consensus, resulting in no selection being made. If you need further assistance or have any other questions, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;39;15.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;59;40.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;56;38.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;12;32.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for both movies will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;03;03.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been registered, and since there was no consensus on a movie choice for Friday, the outcome is that no decision was made.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;46;44.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights to both movies, "Barbie" and "Oppenheimer," for the upcoming screening.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;24;36.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made, resulting in no decision.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;52;32.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_23;02;47.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;23;02.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a clear decision about which movie would be shown on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;28;29.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire a movie for Friday has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;47;28.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without reaching an agreement on a movie to show on Friday, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;49;57.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;37;04.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;45;12.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision has been made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;07;42.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as having no choice of movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;15;36.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been logged as no decision being made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;38;44.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;53;11.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no specific movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_17;05;30.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_20;44;58.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a definitive choice made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_07_01_2025 at_10;54;20.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_06_27_2025 at_22;31;14.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_08_16_2025 at_16;49;32.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;31;21.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has ended without a clear choice for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_05_04_2025 at_21;03;13.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday cannot be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;40;58.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>./Warehouse/FE/run4o_discovery_04_29_2025 at_06;20;11.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision" based on the guidelines provided and the lack of a clear agreement on the movie for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has not been made, and thus, I have registered the outcome as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
